--- a/SAE_3_01/fichiers genere/S3BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFA.xlsx
@@ -3306,10 +3306,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -3326,9 +3338,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -3346,9 +3370,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -3366,10 +3402,22 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -3386,9 +3434,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -3406,9 +3462,21 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -3426,10 +3494,18 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
       <c r="C41" s="28" t="n"/>
-      <c r="D41" s="28" t="n"/>
+      <c r="D41" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
       <c r="G41" s="28" t="n"/>
@@ -3446,7 +3522,11 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
       <c r="C42" s="28" t="n"/>
       <c r="D42" s="28" t="n"/>
@@ -5097,8 +5177,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -5117,9 +5205,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -5137,9 +5233,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -5157,9 +5261,21 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -5177,9 +5293,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -5197,9 +5321,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -5217,9 +5349,17 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -6888,8 +7028,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -6908,8 +7056,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -6928,9 +7084,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -6948,9 +7116,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -6968,10 +7144,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -6988,10 +7172,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -8679,9 +8871,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -8699,10 +8899,18 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -8719,9 +8927,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -10470,10 +10686,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -10490,10 +10718,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -10510,10 +10750,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -10530,10 +10778,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -10550,7 +10806,11 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
@@ -12261,8 +12521,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -12281,8 +12549,16 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
@@ -12301,10 +12577,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -12321,10 +12605,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -14052,8 +14344,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -14072,9 +14372,17 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -14092,10 +14400,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -14112,7 +14428,11 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
@@ -15843,9 +16163,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -15863,9 +16191,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -15883,10 +16223,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -15903,10 +16251,18 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
       <c r="C38" s="28" t="n"/>
-      <c r="D38" s="28" t="n"/>
+      <c r="D38" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
       <c r="G38" s="28" t="n"/>
@@ -15923,10 +16279,18 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
       <c r="C39" s="28" t="n"/>
-      <c r="D39" s="28" t="n"/>
+      <c r="D39" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
       <c r="G39" s="28" t="n"/>
@@ -15943,10 +16307,18 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
-      <c r="D40" s="28" t="n"/>
+      <c r="D40" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
       <c r="G40" s="28" t="n"/>
@@ -17634,9 +18006,17 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="29" t="n"/>
-      <c r="C35" s="28" t="n"/>
+      <c r="C35" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
@@ -17654,10 +18034,22 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="28" t="n"/>
-      <c r="D36" s="28" t="n"/>
+      <c r="D36" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
       <c r="G36" s="28" t="n"/>
@@ -17674,9 +18066,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -17694,8 +18098,16 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
-      <c r="B38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B38" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
@@ -17714,9 +18126,21 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -17734,7 +18158,11 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
       <c r="C40" s="28" t="n"/>
       <c r="D40" s="28" t="n"/>
@@ -19425,10 +19853,22 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
-      <c r="D35" s="28" t="n"/>
+      <c r="D35" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="28" t="n"/>
       <c r="F35" s="28" t="n"/>
       <c r="G35" s="28" t="n"/>
@@ -19445,9 +19885,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -19465,10 +19917,18 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
       <c r="C37" s="28" t="n"/>
-      <c r="D37" s="28" t="n"/>
+      <c r="D37" s="28" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
       <c r="G37" s="28" t="n"/>
@@ -21216,8 +21676,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -21236,9 +21704,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -21256,9 +21736,21 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
-      <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -21276,9 +21768,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -21296,9 +21796,17 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="28" t="n"/>
-      <c r="C39" s="28" t="n"/>
+      <c r="C39" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
       <c r="F39" s="28" t="n"/>
@@ -21316,9 +21824,21 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
-      <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -21336,9 +21856,21 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -21356,9 +21888,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -21376,7 +21916,11 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
       <c r="C43" s="28" t="n"/>
       <c r="D43" s="28" t="n"/>
@@ -23007,8 +23551,16 @@
       <c r="R34" s="28" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="28" t="n"/>
-      <c r="B35" s="29" t="n"/>
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="28" t="n"/>
       <c r="E35" s="28" t="n"/>
@@ -23027,9 +23579,21 @@
       <c r="R35" s="28" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="28" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="28" t="n"/>
+      <c r="A36" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B36" s="29" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="28" t="n"/>
       <c r="E36" s="28" t="n"/>
       <c r="F36" s="28" t="n"/>
@@ -23047,9 +23611,17 @@
       <c r="R36" s="28" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="28" t="n"/>
+      <c r="A37" s="28" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="29" t="n"/>
-      <c r="C37" s="28" t="n"/>
+      <c r="C37" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="28" t="n"/>
       <c r="E37" s="28" t="n"/>
       <c r="F37" s="28" t="n"/>
@@ -23067,9 +23639,17 @@
       <c r="R37" s="28" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="28" t="n"/>
+      <c r="A38" s="28" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="28" t="n"/>
-      <c r="C38" s="28" t="n"/>
+      <c r="C38" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="28" t="n"/>
       <c r="E38" s="28" t="n"/>
       <c r="F38" s="28" t="n"/>
@@ -23087,8 +23667,16 @@
       <c r="R38" s="28" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="28" t="n"/>
-      <c r="B39" s="28" t="n"/>
+      <c r="A39" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="28" t="n"/>
       <c r="D39" s="28" t="n"/>
       <c r="E39" s="28" t="n"/>
@@ -23107,9 +23695,17 @@
       <c r="R39" s="28" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="28" t="n"/>
+      <c r="A40" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B40" s="28" t="n"/>
-      <c r="C40" s="28" t="n"/>
+      <c r="C40" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="28" t="n"/>
       <c r="E40" s="28" t="n"/>
       <c r="F40" s="28" t="n"/>
@@ -23127,9 +23723,21 @@
       <c r="R40" s="28" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="28" t="n"/>
-      <c r="B41" s="28" t="n"/>
-      <c r="C41" s="28" t="n"/>
+      <c r="A41" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B41" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="28" t="n"/>
       <c r="E41" s="28" t="n"/>
       <c r="F41" s="28" t="n"/>
@@ -23147,9 +23755,17 @@
       <c r="R41" s="28" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="28" t="n"/>
+      <c r="A42" s="28" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="28" t="n"/>
-      <c r="C42" s="28" t="n"/>
+      <c r="C42" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="28" t="n"/>
       <c r="E42" s="28" t="n"/>
       <c r="F42" s="28" t="n"/>
@@ -23167,9 +23783,17 @@
       <c r="R42" s="28" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="28" t="n"/>
+      <c r="A43" s="28" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B43" s="28" t="n"/>
-      <c r="C43" s="28" t="n"/>
+      <c r="C43" s="28" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="28" t="n"/>
       <c r="E43" s="28" t="n"/>
       <c r="F43" s="28" t="n"/>

--- a/SAE_3_01/fichiers genere/S3BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFA.xlsx
@@ -13,13 +13,13 @@
     <sheet name="R3.04 Qualité de développement" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="R3.05 Programmation système" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="R3.06 Architecture des réseaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R3.07 SQL dans un langage de programmation" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R3.07 SQL dans un langage de pr" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="R3.08 Probabilités" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="R3.09 Cryptographie et sécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R3.10 Management des systèmes d'information " sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R3.11 Droit des contrats et du numérique" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R3.10 Management des systèmes d" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R3.11 Droit des contrats et du " sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="R3.12 Anglais" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R3.13 Communication professionnelle" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R3.13 Communication professionn" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="R3.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
@@ -3276,16 +3276,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3304,21 +3296,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3336,17 +3316,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3364,17 +3336,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3392,16 +3356,8 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -3420,17 +3376,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -3448,21 +3396,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -3480,17 +3416,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -3508,17 +3436,9 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5115,22 +5035,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5147,21 +5055,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5179,21 +5075,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5211,22 +5095,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5243,17 +5115,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5271,21 +5135,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5303,18 +5155,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -5331,11 +5175,7 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -6954,16 +6794,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6982,17 +6814,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -7010,17 +6834,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -7038,21 +6854,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -7070,17 +6874,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -7098,17 +6894,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -7126,17 +6914,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8773,18 +8553,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8801,18 +8573,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8829,18 +8593,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8857,18 +8613,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8885,18 +8633,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8913,18 +8653,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8941,18 +8673,10 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-11</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8969,18 +8693,10 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-18</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8997,18 +8713,10 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-08</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -9025,18 +8733,10 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
-        </is>
-      </c>
+      <c r="A44" s="27" t="n"/>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D44" s="27" t="n"/>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10612,16 +10312,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10640,16 +10332,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -10668,21 +10352,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10700,17 +10372,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10728,18 +10392,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10756,18 +10412,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12423,17 +12071,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12451,18 +12091,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12479,17 +12111,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -14206,22 +13830,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 4H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -14238,22 +13850,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -14270,18 +13870,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -14298,18 +13890,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -14326,11 +13910,7 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -16009,16 +15589,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -16037,16 +15609,8 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -16065,18 +15629,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -16093,18 +15649,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17800,16 +17348,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17828,17 +17368,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17856,18 +17388,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17884,11 +17408,7 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -19587,17 +19107,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19615,21 +19127,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19647,18 +19147,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19675,18 +19167,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19703,18 +19187,10 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19731,18 +19207,10 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -21398,17 +20866,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -21426,22 +20886,10 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -21458,21 +20906,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -21490,16 +20926,8 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -21518,21 +20946,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
+      <c r="B39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -21550,11 +20966,7 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -23213,22 +22625,10 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -23245,21 +22645,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -23277,18 +22665,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -25004,17 +24384,9 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -25032,17 +24404,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -25060,18 +24424,10 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -25088,22 +24444,10 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -26799,16 +26143,8 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+      <c r="A35" s="27" t="n"/>
+      <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -26827,21 +26163,9 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A36" s="27" t="n"/>
+      <c r="B36" s="28" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26859,21 +26183,9 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A37" s="27" t="n"/>
+      <c r="B37" s="28" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -26891,17 +26203,9 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="inlineStr">
-        <is>
-          <t>2023-09-25</t>
-        </is>
-      </c>
+      <c r="A38" s="27" t="n"/>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -26919,17 +26223,9 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="inlineStr">
-        <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
+      <c r="A39" s="27" t="n"/>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -26947,21 +26243,9 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C40" s="27" t="inlineStr">
-        <is>
-          <t>TD 2H</t>
-        </is>
-      </c>
+      <c r="A40" s="27" t="n"/>
+      <c r="B40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -26979,21 +26263,9 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B41" s="27" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
-      <c r="C41" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="A41" s="27" t="n"/>
+      <c r="B41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -27011,17 +26283,9 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-20</t>
-        </is>
-      </c>
+      <c r="A42" s="27" t="n"/>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -27039,11 +26303,7 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="inlineStr">
-        <is>
-          <t>2023-11-27</t>
-        </is>
-      </c>
+      <c r="A43" s="27" t="n"/>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFA.xlsx
@@ -3276,8 +3276,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -3296,9 +3304,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -3316,9 +3336,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -3336,9 +3364,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -3356,8 +3392,16 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -3376,9 +3420,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -3396,9 +3448,21 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -3416,9 +3480,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -3436,9 +3508,17 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
-      <c r="C43" s="27" t="n"/>
+      <c r="C43" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D43" s="27" t="n"/>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
@@ -5035,10 +5115,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -5055,9 +5147,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -5075,9 +5179,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -5095,10 +5211,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -5115,9 +5243,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -5135,9 +5271,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -5155,10 +5303,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -5175,7 +5331,11 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
@@ -6794,8 +6954,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -6814,9 +6982,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -6834,9 +7010,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -6854,9 +7038,21 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -6874,9 +7070,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -6894,9 +7098,17 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -6914,9 +7126,17 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -8553,10 +8773,18 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -8573,10 +8801,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -8593,10 +8829,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -8613,10 +8857,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -8633,10 +8885,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -8653,10 +8913,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -8673,10 +8941,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -8693,10 +8969,18 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-18</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -8713,10 +8997,18 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
-      <c r="D43" s="27" t="n"/>
+      <c r="D43" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E43" s="27" t="n"/>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
@@ -8733,10 +9025,18 @@
       <c r="R43" s="27" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="27" t="n"/>
+      <c r="A44" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B44" s="27" t="n"/>
       <c r="C44" s="27" t="n"/>
-      <c r="D44" s="27" t="n"/>
+      <c r="D44" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E44" s="27" t="n"/>
       <c r="F44" s="27" t="n"/>
       <c r="G44" s="27" t="n"/>
@@ -10312,8 +10612,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -10332,8 +10640,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -10352,9 +10668,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -10372,9 +10700,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -10392,10 +10728,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -10412,10 +10756,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -12071,9 +12423,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -12091,10 +12451,18 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -12111,9 +12479,17 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -13830,10 +14206,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 4H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -13850,10 +14238,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -13870,10 +14270,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -13890,10 +14298,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -13910,7 +14326,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -15589,8 +16009,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -15609,8 +16037,16 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
@@ -15629,10 +16065,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -15649,10 +16093,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17348,8 +17800,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -17368,9 +17828,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -17388,10 +17856,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -17408,7 +17884,11 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
@@ -19107,9 +19587,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19127,9 +19615,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -19147,10 +19647,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19167,10 +19675,18 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -19187,10 +19703,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -19207,10 +19731,18 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -20866,9 +21398,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -20886,10 +21426,22 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C36" s="27" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -20906,9 +21458,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -20926,8 +21490,16 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
-      <c r="B38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B38" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
@@ -20946,9 +21518,21 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -20966,7 +21550,11 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B40" s="27" t="n"/>
       <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
@@ -22625,10 +23213,22 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
-      <c r="D35" s="27" t="n"/>
+      <c r="D35" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
       <c r="G35" s="27" t="n"/>
@@ -22645,9 +23245,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -22665,10 +23277,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -24384,9 +25004,17 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
       <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -24404,9 +25032,17 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -24424,10 +25060,18 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -24444,10 +25088,22 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -26143,8 +26799,16 @@
       <c r="R34" s="27" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="n"/>
-      <c r="B35" s="28" t="n"/>
+      <c r="A35" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
@@ -26163,9 +26827,21 @@
       <c r="R35" s="27" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="27" t="n"/>
-      <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="n"/>
+      <c r="A36" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -26183,9 +26859,21 @@
       <c r="R36" s="27" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="27" t="n"/>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
+      <c r="A37" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-18</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
@@ -26203,9 +26891,17 @@
       <c r="R37" s="27" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="27" t="n"/>
+      <c r="A38" s="27" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -26223,9 +26919,17 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -26243,9 +26947,21 @@
       <c r="R39" s="27" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="n"/>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+      <c r="A40" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 2H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -26263,9 +26979,21 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
-      <c r="B41" s="27" t="n"/>
-      <c r="C41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B41" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C41" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
@@ -26283,9 +27011,17 @@
       <c r="R41" s="27" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="n"/>
+      <c r="A42" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B42" s="27" t="n"/>
-      <c r="C42" s="27" t="n"/>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
@@ -26303,7 +27039,11 @@
       <c r="R42" s="27" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="27" t="n"/>
+      <c r="A43" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFA.xlsx
@@ -7,20 +7,20 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R3.01 Développement Web" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="R3.02 Développement efficace" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="R3.03 Analyse" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="R3.04 Qualité de développement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="R3.05 Programmation système" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="R3.06 Architecture des réseaux" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="R3.07 SQL dans un langage de pr" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="R3.08 Probabilités" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="R3.09 Cryptographie et sécurité" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="R3.10 Management des systèmes d" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="R3.11 Droit des contrats et du " sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="R3.12 Anglais" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="R3.13 Communication professionn" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="R3.14 PPP" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="R3.01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="R3.02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="R3.03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="R3.04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="R3.05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="R3.06" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="R3.07" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="R3.08" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="R3.09" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="R3.10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="R3.11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="R3.12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="R3.13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="R3.14" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -8775,7 +8775,7 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="B35" s="28" t="n"/>
@@ -8803,7 +8803,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
@@ -8831,7 +8831,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
@@ -8859,7 +8859,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -8887,7 +8887,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -8915,7 +8915,7 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
@@ -8943,7 +8943,7 @@
     <row r="41">
       <c r="A41" s="27" t="inlineStr">
         <is>
-          <t>2023-12-11</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B41" s="27" t="n"/>
@@ -8971,7 +8971,7 @@
     <row r="42">
       <c r="A42" s="27" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B42" s="27" t="n"/>
@@ -8999,7 +8999,7 @@
     <row r="43">
       <c r="A43" s="27" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2023-12-11</t>
         </is>
       </c>
       <c r="B43" s="27" t="n"/>
@@ -9027,7 +9027,7 @@
     <row r="44">
       <c r="A44" s="27" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="B44" s="27" t="n"/>
@@ -9053,10 +9053,18 @@
       <c r="R44" s="27" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="27" t="n"/>
+      <c r="A45" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-08</t>
+        </is>
+      </c>
       <c r="B45" s="27" t="n"/>
       <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
+      <c r="D45" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
       <c r="G45" s="27" t="n"/>
@@ -9073,10 +9081,18 @@
       <c r="R45" s="27" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="27" t="n"/>
+      <c r="A46" s="27" t="inlineStr">
+        <is>
+          <t>2024-01-15</t>
+        </is>
+      </c>
       <c r="B46" s="27" t="n"/>
       <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
+      <c r="D46" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
       <c r="G46" s="27" t="n"/>
@@ -13469,7 +13485,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -14213,13 +14229,13 @@
       </c>
       <c r="B35" s="28" t="inlineStr">
         <is>
-          <t>Amphi 4H</t>
+          <t>Amphi 6H</t>
         </is>
       </c>
       <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E35" s="27" t="n"/>
@@ -14251,7 +14267,7 @@
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -16047,7 +16063,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C36" s="27" t="n"/>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
@@ -16067,16 +16087,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 2H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -16095,14 +16115,14 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>TP 4H</t>
+          <t>TP 2H</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -16121,10 +16141,18 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -17810,7 +17838,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C35" s="27" t="n"/>
+      <c r="C35" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -17858,14 +17890,14 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
       <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>TP 2H</t>
+          <t>TP 4H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -17886,12 +17918,16 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
       <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>TP 2H</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -17908,7 +17944,11 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
@@ -18850,7 +18890,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>Mickaël MARTIN NEVOT</t>
+          <t>MickaÃ«l MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -19589,15 +19629,15 @@
     <row r="35">
       <c r="A35" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
-        </is>
-      </c>
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C35" s="27" t="n"/>
       <c r="D35" s="27" t="n"/>
       <c r="E35" s="27" t="n"/>
       <c r="F35" s="27" t="n"/>
@@ -19617,7 +19657,7 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B36" s="28" t="inlineStr">
@@ -19649,16 +19689,20 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
-        </is>
-      </c>
-      <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B37" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -19677,7 +19721,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
@@ -19705,7 +19749,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B39" s="27" t="n"/>
@@ -19733,7 +19777,7 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B40" s="27" t="n"/>
@@ -19759,10 +19803,18 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -21403,10 +21455,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n"/>
+      <c r="B35" s="28" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
       <c r="C35" s="27" t="inlineStr">
         <is>
-          <t>TD 2H</t>
+          <t>TD 4H</t>
         </is>
       </c>
       <c r="D35" s="27" t="n"/>
@@ -21428,14 +21484,10 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
-        </is>
-      </c>
-      <c r="B36" s="28" t="inlineStr">
-        <is>
-          <t>Amphi 2H</t>
-        </is>
-      </c>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="B36" s="28" t="n"/>
       <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
@@ -21460,7 +21512,7 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B37" s="28" t="inlineStr">
@@ -21468,12 +21520,12 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -21492,7 +21544,7 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B38" s="27" t="inlineStr">
@@ -21500,7 +21552,11 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C38" s="27" t="n"/>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
@@ -21520,7 +21576,7 @@
     <row r="39">
       <c r="A39" s="27" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B39" s="27" t="inlineStr">
@@ -21528,11 +21584,7 @@
           <t>Amphi 2H</t>
         </is>
       </c>
-      <c r="C39" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
@@ -21552,11 +21604,19 @@
     <row r="40">
       <c r="A40" s="27" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
-        </is>
-      </c>
-      <c r="B40" s="27" t="n"/>
-      <c r="C40" s="27" t="n"/>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B40" s="27" t="inlineStr">
+        <is>
+          <t>Amphi 2H</t>
+        </is>
+      </c>
+      <c r="C40" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
@@ -21574,7 +21634,11 @@
       <c r="R40" s="27" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="27" t="n"/>
+      <c r="A41" s="27" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
+      </c>
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
@@ -25034,16 +25098,16 @@
     <row r="36">
       <c r="A36" s="27" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2023-09-11</t>
         </is>
       </c>
       <c r="B36" s="28" t="n"/>
-      <c r="C36" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -25062,16 +25126,16 @@
     <row r="37">
       <c r="A37" s="27" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="B37" s="28" t="n"/>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="inlineStr">
-        <is>
-          <t>TP 4H</t>
-        </is>
-      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -25090,15 +25154,11 @@
     <row r="38">
       <c r="A38" s="27" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="B38" s="27" t="n"/>
-      <c r="C38" s="27" t="inlineStr">
-        <is>
-          <t>TD 4H</t>
-        </is>
-      </c>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
           <t>TP 4H</t>
@@ -25120,10 +25180,22 @@
       <c r="R38" s="27" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="n"/>
+      <c r="A39" s="27" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
       <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>TD 4H</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>TP 4H</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>

--- a/SAE_3_01/fichiers genere/S3BFA.xlsx
+++ b/SAE_3_01/fichiers genere/S3BFA.xlsx
@@ -3376,7 +3376,11 @@
         </is>
       </c>
       <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
+      <c r="E38" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
@@ -3520,7 +3524,11 @@
         </is>
       </c>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
@@ -5339,7 +5347,11 @@
       <c r="B42" s="27" t="n"/>
       <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
-      <c r="E42" s="27" t="n"/>
+      <c r="E42" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
       <c r="H42" s="27" t="n"/>
@@ -7138,7 +7150,11 @@
         </is>
       </c>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -13485,7 +13501,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -14350,7 +14366,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -17952,7 +17972,11 @@
       <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -18890,7 +18914,7 @@
       </c>
       <c r="G2" s="27" t="inlineStr">
         <is>
-          <t>MickaÃ«l MARTIN NEVOT</t>
+          <t>Mickaël MARTIN NEVOT</t>
         </is>
       </c>
       <c r="H2" s="27" t="n"/>
@@ -19815,7 +19839,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 4H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -21642,7 +21670,11 @@
       <c r="B41" s="27" t="n"/>
       <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
+      <c r="E41" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
@@ -23353,7 +23385,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E37" s="27" t="n"/>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -25196,7 +25232,11 @@
           <t>TP 4H</t>
         </is>
       </c>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -27003,7 +27043,11 @@
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
+      <c r="E39" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
@@ -27119,7 +27163,11 @@
       <c r="B43" s="27" t="n"/>
       <c r="C43" s="27" t="n"/>
       <c r="D43" s="27" t="n"/>
-      <c r="E43" s="27" t="n"/>
+      <c r="E43" s="27" t="inlineStr">
+        <is>
+          <t>Test 2H</t>
+        </is>
+      </c>
       <c r="F43" s="27" t="n"/>
       <c r="G43" s="27" t="n"/>
       <c r="H43" s="27" t="n"/>
